--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78562.32741198262</v>
+        <v>-87881.08434449384</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34095737.92864071</v>
+        <v>34095737.92864073</v>
       </c>
     </row>
     <row r="8">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>184.9914243037258</v>
       </c>
       <c r="E17" t="n">
-        <v>131.8310744351344</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>49.60563018141188</v>
       </c>
       <c r="T18" t="n">
-        <v>126.0091317304332</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U18" t="n">
         <v>174.5263742585036</v>
@@ -2004,22 +2004,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>120.1762156446658</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T19" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6161358490523</v>
+        <v>231.5467929982465</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>304.9504002559952</v>
       </c>
       <c r="F20" t="n">
-        <v>178.4237742066804</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>396.054118850051</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T20" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2295,10 +2295,10 @@
         <v>240.8720855447433</v>
       </c>
       <c r="U22" t="n">
-        <v>185.607326548621</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>1.822590060261175</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,19 +2323,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0.1784694210818952</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>176.1446634785938</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T24" t="n">
         <v>124.8306395731037</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.61925960259209</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>60.07073011995545</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>42.45053661954375</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>93.53818910684734</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2724,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.0937685836068</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
@@ -2775,13 +2775,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>100.1472502492089</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>38.01997492189429</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2797,13 +2797,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>158.1311462694395</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>176.086781930971</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>231.1678702636863</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>175.0001618277444</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>315.1723433222108</v>
+        <v>130.8721589979813</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3195,19 +3195,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>88.24074300591364</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0.8098965587390057</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3274,7 +3274,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>116.6395830120781</v>
+        <v>130.752539236576</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>55.96684102370138</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>43.97954181326757</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>205.5932749700205</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>181.9350240293736</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>43.97954181326757</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>185.0832217507338</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.502520116205031</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>288.9049986039399</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3954,10 +3954,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>27.35987084644633</v>
+        <v>138.7434236076974</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>302.8196695381242</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>304.6279919443823</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0178285439537</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>49.34995949258614</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1264.456403724953</v>
+        <v>220.3148750977239</v>
       </c>
       <c r="C17" t="n">
-        <v>1264.456403724953</v>
+        <v>220.3148750977239</v>
       </c>
       <c r="D17" t="n">
-        <v>1264.456403724953</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E17" t="n">
-        <v>1131.293702275322</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F17" t="n">
-        <v>708.8839731275193</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G17" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H17" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I17" t="n">
-        <v>83.7982877452424</v>
+        <v>83.7982877452425</v>
       </c>
       <c r="J17" t="n">
-        <v>195.5292216073329</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K17" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L17" t="n">
-        <v>570.7285396968689</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M17" t="n">
-        <v>801.8833353847205</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N17" t="n">
         <v>1036.7784573317</v>
@@ -5548,19 +5548,19 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U17" t="n">
-        <v>1672.742527425299</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="V17" t="n">
-        <v>1672.742527425299</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="W17" t="n">
-        <v>1672.742527425299</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="X17" t="n">
-        <v>1672.742527425299</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="Y17" t="n">
-        <v>1264.456403724953</v>
+        <v>642.7246042455268</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C18" t="n">
-        <v>425.5107626718881</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D18" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E18" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F18" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G18" t="n">
         <v>68.24978812594551</v>
@@ -5594,25 +5594,25 @@
         <v>83.76937108752902</v>
       </c>
       <c r="J18" t="n">
-        <v>474.8738748284774</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K18" t="n">
-        <v>605.2485493631991</v>
+        <v>264.0535687076974</v>
       </c>
       <c r="L18" t="n">
-        <v>758.1833518442032</v>
+        <v>416.9883711887014</v>
       </c>
       <c r="M18" t="n">
-        <v>936.6510528709197</v>
+        <v>595.456072215418</v>
       </c>
       <c r="N18" t="n">
-        <v>1119.842262896595</v>
+        <v>778.6472822410933</v>
       </c>
       <c r="O18" t="n">
-        <v>1287.426430762205</v>
+        <v>946.2314501067034</v>
       </c>
       <c r="P18" t="n">
-        <v>1421.927499955579</v>
+        <v>1097.834127233839</v>
       </c>
       <c r="Q18" t="n">
         <v>1511.8379027716</v>
@@ -5624,7 +5624,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T18" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U18" t="n">
         <v>1319.064612101715</v>
@@ -5633,13 +5633,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W18" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X18" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y18" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>154.8449673612998</v>
+        <v>852.9050322832435</v>
       </c>
       <c r="C19" t="n">
-        <v>154.8449673612998</v>
+        <v>680.3433207664684</v>
       </c>
       <c r="D19" t="n">
-        <v>154.8449673612998</v>
+        <v>514.4653279679911</v>
       </c>
       <c r="E19" t="n">
-        <v>154.8449673612998</v>
+        <v>344.7073242187284</v>
       </c>
       <c r="F19" t="n">
-        <v>154.8449673612998</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="G19" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H19" t="n">
         <v>33.45485054850599</v>
@@ -5676,22 +5676,22 @@
         <v>75.20378455015359</v>
       </c>
       <c r="K19" t="n">
-        <v>143.8101078806224</v>
+        <v>418.568562451758</v>
       </c>
       <c r="L19" t="n">
-        <v>231.6025814132115</v>
+        <v>506.3610359843471</v>
       </c>
       <c r="M19" t="n">
-        <v>645.606356950973</v>
+        <v>598.9258899113638</v>
       </c>
       <c r="N19" t="n">
-        <v>1059.610132488735</v>
+        <v>689.2897585046177</v>
       </c>
       <c r="O19" t="n">
-        <v>1473.613908026496</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P19" t="n">
-        <v>1617.735720978399</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q19" t="n">
         <v>1667.182735391305</v>
@@ -5700,25 +5700,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S19" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T19" t="n">
-        <v>1429.437390511417</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U19" t="n">
-        <v>1151.037253290152</v>
+        <v>1290.115405668818</v>
       </c>
       <c r="V19" t="n">
-        <v>864.0817451605828</v>
+        <v>1290.115405668818</v>
       </c>
       <c r="W19" t="n">
-        <v>592.0553407468744</v>
+        <v>1290.115405668818</v>
       </c>
       <c r="X19" t="n">
-        <v>346.6635860802869</v>
+        <v>1044.723651002231</v>
       </c>
       <c r="Y19" t="n">
-        <v>346.6635860802869</v>
+        <v>1044.723651002231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1458.555008901416</v>
+        <v>741.5402233828961</v>
       </c>
       <c r="C20" t="n">
-        <v>1036.145279753613</v>
+        <v>741.5402233828961</v>
       </c>
       <c r="D20" t="n">
-        <v>613.7355506058104</v>
+        <v>741.5402233828961</v>
       </c>
       <c r="E20" t="n">
-        <v>613.7355506058104</v>
+        <v>433.509516053608</v>
       </c>
       <c r="F20" t="n">
         <v>433.509516053608</v>
@@ -5749,55 +5749,55 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I20" t="n">
-        <v>83.7982877452425</v>
+        <v>83.79828774524236</v>
       </c>
       <c r="J20" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073329</v>
       </c>
       <c r="K20" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099032</v>
       </c>
       <c r="L20" t="n">
         <v>570.728539696869</v>
       </c>
       <c r="M20" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847207</v>
       </c>
       <c r="N20" t="n">
-        <v>1036.7784573317</v>
+        <v>1036.778457331701</v>
       </c>
       <c r="O20" t="n">
-        <v>1258.583260144776</v>
+        <v>1258.583260144777</v>
       </c>
       <c r="P20" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q20" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R20" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S20" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T20" t="n">
-        <v>1458.555008901416</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U20" t="n">
-        <v>1458.555008901416</v>
+        <v>1146.395677971863</v>
       </c>
       <c r="V20" t="n">
-        <v>1458.555008901416</v>
+        <v>1146.395677971863</v>
       </c>
       <c r="W20" t="n">
-        <v>1458.555008901416</v>
+        <v>741.5402233828961</v>
       </c>
       <c r="X20" t="n">
-        <v>1458.555008901416</v>
+        <v>741.5402233828961</v>
       </c>
       <c r="Y20" t="n">
-        <v>1458.555008901416</v>
+        <v>741.5402233828961</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C21" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D21" t="n">
-        <v>330.4204738184412</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E21" t="n">
-        <v>236.3000591453949</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F21" t="n">
-        <v>152.9162207615565</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G21" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594553</v>
       </c>
       <c r="H21" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I21" t="n">
-        <v>83.76937108752902</v>
+        <v>83.76937108752904</v>
       </c>
       <c r="J21" t="n">
-        <v>474.8738748284774</v>
+        <v>167.4171577960259</v>
       </c>
       <c r="K21" t="n">
-        <v>588.6118936739097</v>
+        <v>281.1551766414582</v>
       </c>
       <c r="L21" t="n">
-        <v>741.5466961549138</v>
+        <v>434.0899791224624</v>
       </c>
       <c r="M21" t="n">
-        <v>920.0143971816303</v>
+        <v>612.557680149179</v>
       </c>
       <c r="N21" t="n">
-        <v>1103.205607207306</v>
+        <v>795.7488901748544</v>
       </c>
       <c r="O21" t="n">
-        <v>1270.789775072916</v>
+        <v>963.3330580404645</v>
       </c>
       <c r="P21" t="n">
-        <v>1405.290844266289</v>
+        <v>1097.834127233838</v>
       </c>
       <c r="Q21" t="n">
         <v>1511.8379027716</v>
@@ -5873,10 +5873,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X21" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y21" t="n">
-        <v>653.2711249150088</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>210.1619045867498</v>
+        <v>718.3596126512649</v>
       </c>
       <c r="C22" t="n">
-        <v>210.1619045867498</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="D22" t="n">
-        <v>210.1619045867498</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E22" t="n">
         <v>210.1619045867498</v>
@@ -5910,52 +5910,52 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J22" t="n">
-        <v>75.20378455015359</v>
+        <v>75.2037845501536</v>
       </c>
       <c r="K22" t="n">
-        <v>418.568562451758</v>
+        <v>418.5685624517581</v>
       </c>
       <c r="L22" t="n">
-        <v>832.5723379895196</v>
+        <v>769.1447895942091</v>
       </c>
       <c r="M22" t="n">
-        <v>925.1371919165364</v>
+        <v>861.7096435212258</v>
       </c>
       <c r="N22" t="n">
-        <v>1015.50106050979</v>
+        <v>952.0735121144796</v>
       </c>
       <c r="O22" t="n">
-        <v>1098.966718971616</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P22" t="n">
-        <v>1449.542946114066</v>
+        <v>1449.542946114067</v>
       </c>
       <c r="Q22" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R22" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S22" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T22" t="n">
-        <v>1429.437390511417</v>
+        <v>1429.437390511418</v>
       </c>
       <c r="U22" t="n">
-        <v>1241.955242482507</v>
+        <v>1429.437390511418</v>
       </c>
       <c r="V22" t="n">
-        <v>954.9997343529376</v>
+        <v>1427.596390450548</v>
       </c>
       <c r="W22" t="n">
-        <v>682.9733299392291</v>
+        <v>1155.56998603684</v>
       </c>
       <c r="X22" t="n">
-        <v>437.5815752726415</v>
+        <v>910.178231370252</v>
       </c>
       <c r="Y22" t="n">
-        <v>210.1619045867498</v>
+        <v>910.178231370252</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2360.327577447737</v>
+        <v>885.0319878285612</v>
       </c>
       <c r="C23" t="n">
-        <v>1922.18510463116</v>
+        <v>446.8895150119845</v>
       </c>
       <c r="D23" t="n">
-        <v>1486.275319805605</v>
+        <v>446.8895150119845</v>
       </c>
       <c r="E23" t="n">
-        <v>1052.5005749639</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F23" t="n">
-        <v>624.6331453731077</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>225.1304540525849</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447737</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X23" t="n">
-        <v>2360.327577447737</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="Y23" t="n">
-        <v>2360.327577447737</v>
+        <v>885.0319878285612</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>589.1109565208974</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C25" t="n">
-        <v>589.1109565208974</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D25" t="n">
-        <v>589.1109565208974</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="E25" t="n">
-        <v>419.3529527716346</v>
+        <v>107.8840567206269</v>
       </c>
       <c r="F25" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I25" t="n">
         <v>47.20655154895474</v>
@@ -6150,16 +6150,16 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>688.1212571728195</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M25" t="n">
-        <v>1272.302332591134</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N25" t="n">
-        <v>1399.801244395024</v>
+        <v>1388.483364472883</v>
       </c>
       <c r="O25" t="n">
         <v>1657.620488527957</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U25" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V25" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W25" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X25" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y25" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1849.01926465316</v>
+        <v>925.4983576137641</v>
       </c>
       <c r="C26" t="n">
-        <v>1410.876791836584</v>
+        <v>925.4983576137641</v>
       </c>
       <c r="D26" t="n">
-        <v>974.9670070110283</v>
+        <v>489.5885727882086</v>
       </c>
       <c r="E26" t="n">
-        <v>541.1922621693234</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F26" t="n">
-        <v>541.1922621693234</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G26" t="n">
-        <v>141.6895708488005</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U26" t="n">
-        <v>1849.01926465316</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V26" t="n">
-        <v>1849.01926465316</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W26" t="n">
-        <v>1849.01926465316</v>
+        <v>1333.784481314111</v>
       </c>
       <c r="X26" t="n">
-        <v>1849.01926465316</v>
+        <v>1333.784481314111</v>
       </c>
       <c r="Y26" t="n">
-        <v>1849.01926465316</v>
+        <v>925.4983576137641</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210685</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.578677996091</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>803.3877032987883</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6326,7 +6326,7 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q27" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R27" t="n">
         <v>1676.651116233592</v>
@@ -6344,13 +6344,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>852.4895006216354</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C28" t="n">
-        <v>679.9277891048604</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D28" t="n">
-        <v>514.0497963063831</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E28" t="n">
-        <v>344.2917925571204</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F28" t="n">
         <v>344.2917925571204</v>
@@ -6384,25 +6384,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>202.9123158186961</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L28" t="n">
-        <v>326.7831174369941</v>
+        <v>831.5726843696448</v>
       </c>
       <c r="M28" t="n">
-        <v>910.964192855309</v>
+        <v>962.1770767081742</v>
       </c>
       <c r="N28" t="n">
-        <v>1480.721907816843</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O28" t="n">
-        <v>2018.157038390386</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U28" t="n">
-        <v>1695.267182904121</v>
+        <v>2081.94094549648</v>
       </c>
       <c r="V28" t="n">
-        <v>1408.311674774552</v>
+        <v>1794.98543736691</v>
       </c>
       <c r="W28" t="n">
-        <v>1136.285270360843</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X28" t="n">
-        <v>890.8935156942559</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y28" t="n">
-        <v>852.4895006216354</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1355.033554032792</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C29" t="n">
-        <v>916.8910812162151</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D29" t="n">
-        <v>480.9812963906596</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895475</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
         <v>1463.013992431967</v>
@@ -6481,34 +6481,34 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2160.132777087342</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>2160.132777087342</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>2160.132777087342</v>
       </c>
       <c r="W29" t="n">
-        <v>2182.462141153827</v>
+        <v>1755.277322498375</v>
       </c>
       <c r="X29" t="n">
-        <v>1763.319677733138</v>
+        <v>1755.277322498375</v>
       </c>
       <c r="Y29" t="n">
-        <v>1355.033554032792</v>
+        <v>1346.991198798029</v>
       </c>
     </row>
     <row r="30">
@@ -6521,22 +6521,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
         <v>81.42328772043086</v>
@@ -6597,52 +6597,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>896.8524940391953</v>
+        <v>959.9477806029472</v>
       </c>
       <c r="C31" t="n">
-        <v>724.2907825224203</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D31" t="n">
-        <v>558.412789723943</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E31" t="n">
-        <v>388.6547859746802</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F31" t="n">
-        <v>211.9477319364364</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>828.1746199579909</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.355695376306</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N31" t="n">
         <v>1539.854607180195</v>
       </c>
       <c r="O31" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
         <v>2360.327577447737</v>
@@ -6651,22 +6651,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T31" t="n">
-        <v>2126.824678191489</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U31" t="n">
-        <v>1848.438046240231</v>
+        <v>2183.559737217692</v>
       </c>
       <c r="V31" t="n">
-        <v>1561.482538110662</v>
+        <v>1896.604229088122</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.482538110662</v>
+        <v>1624.577824674414</v>
       </c>
       <c r="X31" t="n">
-        <v>1316.090783444074</v>
+        <v>1379.186070007826</v>
       </c>
       <c r="Y31" t="n">
-        <v>1088.671112758183</v>
+        <v>1151.766399321934</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1782.900983623584</v>
+        <v>752.8378878305998</v>
       </c>
       <c r="C32" t="n">
-        <v>1344.758510807007</v>
+        <v>752.8378878305998</v>
       </c>
       <c r="D32" t="n">
-        <v>908.8487259814518</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895475</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895475</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
         <v>1463.013992431967</v>
@@ -6718,34 +6718,34 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2101.256885969251</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V32" t="n">
-        <v>2101.256885969251</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W32" t="n">
-        <v>2101.256885969251</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X32" t="n">
-        <v>2101.256885969251</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="Y32" t="n">
-        <v>2101.256885969251</v>
+        <v>885.0319878285608</v>
       </c>
     </row>
     <row r="33">
@@ -6758,43 +6758,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
         <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
         <v>1488.088567599445</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>757.7926570868869</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C34" t="n">
-        <v>585.2309455701119</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D34" t="n">
-        <v>419.3529527716346</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E34" t="n">
-        <v>419.3529527716346</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F34" t="n">
-        <v>242.6458987333908</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G34" t="n">
         <v>242.6458987333908</v>
@@ -6855,55 +6855,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545215</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.331138940781</v>
+        <v>419.8232506543494</v>
       </c>
       <c r="M34" t="n">
-        <v>1236.93553127931</v>
+        <v>550.4276429928788</v>
       </c>
       <c r="N34" t="n">
-        <v>1364.4344430832</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951972</v>
+        <v>2271.1955138054</v>
       </c>
       <c r="T34" t="n">
-        <v>1973.653814855378</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="U34" t="n">
-        <v>1695.267182904121</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="V34" t="n">
-        <v>1694.449105572062</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="W34" t="n">
-        <v>1422.422701158353</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X34" t="n">
-        <v>1177.030946491766</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y34" t="n">
-        <v>949.6112758058741</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1782.900983623584</v>
+        <v>1349.126238781879</v>
       </c>
       <c r="C35" t="n">
-        <v>1344.758510807007</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D35" t="n">
-        <v>908.8487259814518</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E35" t="n">
         <v>475.073981139747</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>2319.861207662534</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V35" t="n">
-        <v>2202.043447044273</v>
+        <v>1757.412362482226</v>
       </c>
       <c r="W35" t="n">
-        <v>2202.043447044273</v>
+        <v>1757.412362482226</v>
       </c>
       <c r="X35" t="n">
-        <v>1782.900983623584</v>
+        <v>1757.412362482226</v>
       </c>
       <c r="Y35" t="n">
-        <v>1782.900983623584</v>
+        <v>1349.126238781879</v>
       </c>
     </row>
     <row r="36">
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.081764785142</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C37" t="n">
-        <v>559.5496021349386</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D37" t="n">
-        <v>393.6716093364613</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E37" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895474</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.331138940781</v>
+        <v>419.8232506543497</v>
       </c>
       <c r="M37" t="n">
-        <v>1236.93553127931</v>
+        <v>550.4276429928792</v>
       </c>
       <c r="N37" t="n">
-        <v>1364.4344430832</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O37" t="n">
         <v>1657.620488527957</v>
@@ -7125,22 +7125,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351143</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399886</v>
+        <v>2315.903797838376</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270317</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856609</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.320054190021</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041292</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1349.126238781879</v>
+        <v>1120.886428673516</v>
       </c>
       <c r="C38" t="n">
-        <v>910.9837659653025</v>
+        <v>682.7439558569395</v>
       </c>
       <c r="D38" t="n">
         <v>475.073981139747</v>
@@ -7171,10 +7171,10 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
         <v>512.3249274228017</v>
@@ -7213,13 +7213,13 @@
         <v>2360.327577447737</v>
       </c>
       <c r="W38" t="n">
-        <v>2176.554825902915</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X38" t="n">
-        <v>1757.412362482226</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="Y38" t="n">
-        <v>1349.126238781879</v>
+        <v>1547.185999158424</v>
       </c>
     </row>
     <row r="39">
@@ -7332,25 +7332,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1106.331138940781</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M40" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N40" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,13 +7359,13 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>2315.903797838376</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U40" t="n">
-        <v>2315.903797838376</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="V40" t="n">
         <v>2028.948289708806</v>
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>880.4839877111824</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="C41" t="n">
-        <v>880.4839877111824</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D41" t="n">
-        <v>880.4839877111824</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2060.790516184048</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>1698.173566117875</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W41" t="n">
-        <v>1293.318111528908</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X41" t="n">
-        <v>1293.318111528908</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="Y41" t="n">
-        <v>885.0319878285612</v>
+        <v>1444.163810064193</v>
       </c>
     </row>
     <row r="42">
@@ -7472,22 +7472,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>730.9745012407179</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C43" t="n">
-        <v>558.4127897239429</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D43" t="n">
         <v>558.4127897239429</v>
@@ -7560,28 +7560,28 @@
         <v>211.9477319364363</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.331138940781</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.854607180195</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O43" t="n">
         <v>1657.620488527956</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V43" t="n">
-        <v>1667.630949725893</v>
+        <v>1833.50894252437</v>
       </c>
       <c r="W43" t="n">
-        <v>1395.604545312184</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X43" t="n">
-        <v>1150.212790645597</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7931199597051</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="C44" t="n">
-        <v>1922.18510463116</v>
+        <v>2013.98275358362</v>
       </c>
       <c r="D44" t="n">
-        <v>1486.275319805604</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E44" t="n">
-        <v>1052.500574963899</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F44" t="n">
-        <v>624.6331453731073</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
         <v>1775.969506973259</v>
@@ -7672,28 +7672,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="Y44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.5713050663906</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030328</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495861</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765398</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927014</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J45" t="n">
         <v>175.3166270668981</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L45" t="n">
         <v>551.5786779960906</v>
@@ -7766,13 +7766,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>945.228421128053</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>790.3609853669329</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.8752061461537</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.0817647851416</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C46" t="n">
-        <v>443.5200532683665</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6716093364613</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K46" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>744.992999204955</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M46" t="n">
-        <v>1329.17407462327</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N46" t="n">
-        <v>1898.931789584804</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041287</v>
+        <v>1136.285270360843</v>
       </c>
     </row>
   </sheetData>
@@ -9242,10 +9242,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>16.8047027164539</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>17.27435144824426</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9324,25 +9324,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>324.6857794047927</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>326.9089969136443</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>333.8768859352889</v>
+        <v>265.4381349594563</v>
       </c>
       <c r="P19" t="n">
-        <v>73.43689191893546</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>17.27435144824321</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>16.80470271645416</v>
+        <v>327.367043153273</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9564,7 +9564,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>329.5063656617905</v>
+        <v>265.4381349594566</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>281.9767042326205</v>
+        <v>346.0449349349551</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9804,13 +9804,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>141.4680432173443</v>
+        <v>152.9002451589008</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>30.81754489126229</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>156.730423204287</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10275,10 +10275,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>141.4680432173448</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>458.1582657371572</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -10509,19 +10509,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>6.525705103702535</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>93.97993254278362</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M40" t="n">
-        <v>177.19208494646</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11226,13 +11226,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>177.1920849464595</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11463,19 +11463,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371566</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>84.02183914447983</v>
       </c>
       <c r="O46" t="n">
-        <v>158.2045317475392</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>3.85094292373384</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>246.5592626735742</v>
       </c>
       <c r="E17" t="n">
-        <v>297.6059229581533</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>5.403123438559476</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>212.0456433386444</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>43.16267358958506</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H19" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>69.83578017384922</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>44.06934285080575</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,16 +23971,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>124.4865971372926</v>
       </c>
       <c r="F20" t="n">
-        <v>245.1649810882039</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>133.1999654356588</v>
       </c>
       <c r="I22" t="n">
-        <v>69.83578017384922</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>90.00880930043122</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>282.2633629880127</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.2585279722059</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>90.87967246293482</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>116.2811729292051</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="G25" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24445,13 +24445,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>386.986460773744</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>173.4861468346813</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>169.1588901203625</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>187.1254990571385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>51.52239274613942</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
@@ -24742,10 +24742,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>224.720118112106</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>8.656881591941101</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>100.602603804</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.8642314578478</v>
+        <v>291.1644157820774</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25083,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>54.74153010489418</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>283.2760564895348</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>242.3511975534336</v>
+        <v>228.2382413289357</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>231.6232238184768</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>225.9574120072794</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -25453,10 +25453,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>218.8718760137034</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>195.8452100423598</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>99.00273129754001</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>417.5340546638537</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>144.856049484471</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>256.7260822018275</v>
+        <v>145.3425294405764</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>130.9413785502867</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>90.8796724629353</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>83.88260398784352</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>114.8692533779064</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>339877.6496930267</v>
+        <v>339877.6496930268</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>430208.271714761</v>
+        <v>430208.2717147608</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>430208.2717147609</v>
+        <v>430208.2717147608</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>430208.2717147608</v>
+        <v>430208.2717147607</v>
       </c>
     </row>
   </sheetData>
@@ -26337,22 +26337,22 @@
         <v>133702.9356056948</v>
       </c>
       <c r="J2" t="n">
-        <v>133702.9356056948</v>
+        <v>133702.9356056947</v>
       </c>
       <c r="K2" t="n">
-        <v>133702.9356056948</v>
+        <v>133702.9356056947</v>
       </c>
       <c r="L2" t="n">
-        <v>133702.9356056948</v>
+        <v>133702.9356056947</v>
       </c>
       <c r="M2" t="n">
-        <v>133702.9356056948</v>
+        <v>133702.9356056947</v>
       </c>
       <c r="N2" t="n">
         <v>133702.9356056948</v>
       </c>
       <c r="O2" t="n">
-        <v>133702.9356056948</v>
+        <v>133702.9356056947</v>
       </c>
       <c r="P2" t="n">
         <v>133702.9356056947</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>148032.4060558944</v>
+        <v>148032.4060558943</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>17673.06968311938</v>
+        <v>17673.06968311939</v>
       </c>
       <c r="H4" t="n">
-        <v>17673.06968311938</v>
+        <v>17673.06968311937</v>
       </c>
       <c r="I4" t="n">
         <v>13837.4771430886</v>
@@ -26444,7 +26444,7 @@
         <v>13837.4771430886</v>
       </c>
       <c r="K4" t="n">
-        <v>13837.47714308861</v>
+        <v>13837.4771430886</v>
       </c>
       <c r="L4" t="n">
         <v>13837.4771430886</v>
@@ -26459,7 +26459,7 @@
         <v>13837.4771430886</v>
       </c>
       <c r="P4" t="n">
-        <v>13837.47714308859</v>
+        <v>13837.4771430886</v>
       </c>
     </row>
     <row r="5">
@@ -26487,7 +26487,7 @@
         <v>32636.50261996421</v>
       </c>
       <c r="H5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.50261996422</v>
       </c>
       <c r="I5" t="n">
         <v>46051.08120963782</v>
@@ -26496,10 +26496,10 @@
         <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963782</v>
@@ -26508,7 +26508,7 @@
         <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="G6" t="n">
-        <v>-318633.479128399</v>
+        <v>-319365.2300501737</v>
       </c>
       <c r="H6" t="n">
-        <v>53155.38194863652</v>
+        <v>52423.6310268618</v>
       </c>
       <c r="I6" t="n">
-        <v>-74218.0288029261</v>
+        <v>-74771.90924614786</v>
       </c>
       <c r="J6" t="n">
-        <v>73814.37725296838</v>
+        <v>73260.49680974639</v>
       </c>
       <c r="K6" t="n">
-        <v>73814.37725296838</v>
+        <v>73260.49680974639</v>
       </c>
       <c r="L6" t="n">
-        <v>73814.37725296838</v>
+        <v>73260.49680974639</v>
       </c>
       <c r="M6" t="n">
-        <v>73814.37725296835</v>
+        <v>73260.49680974639</v>
       </c>
       <c r="N6" t="n">
-        <v>73814.37725296835</v>
+        <v>73260.49680974643</v>
       </c>
       <c r="O6" t="n">
-        <v>-26822.41323888808</v>
+        <v>-27376.29368211</v>
       </c>
       <c r="P6" t="n">
-        <v>73814.37725296835</v>
+        <v>73260.49680974642</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>330.7713854632871</v>
       </c>
       <c r="H3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26767,7 +26767,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
         <v>466.7019280932212</v>
@@ -26807,7 +26807,7 @@
         <v>418.1856318563248</v>
       </c>
       <c r="H4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619342</v>
@@ -26816,10 +26816,10 @@
         <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619342</v>
@@ -26828,10 +26828,10 @@
         <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>135.9305426299341</v>
+        <v>135.9305426299339</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>171.8962625056094</v>
+        <v>171.8962625056093</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32463,31 +32463,31 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H20" t="n">
         <v>13.61814050804377</v>
       </c>
       <c r="I20" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351109</v>
       </c>
       <c r="J20" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K20" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N20" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O20" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P20" t="n">
         <v>191.2174419853368</v>
@@ -32496,13 +32496,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219385</v>
       </c>
       <c r="S20" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T20" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047395</v>
       </c>
       <c r="U20" t="n">
         <v>0.1063787370334189</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229197</v>
       </c>
       <c r="H21" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284515</v>
       </c>
       <c r="I21" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J21" t="n">
-        <v>67.21836239872329</v>
+        <v>67.21836239872331</v>
       </c>
       <c r="K21" t="n">
         <v>114.8868877226589</v>
@@ -32569,22 +32569,22 @@
         <v>169.27693723799</v>
       </c>
       <c r="P21" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.81858870305197</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R21" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S21" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T21" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796982</v>
       </c>
       <c r="H22" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870412</v>
       </c>
       <c r="I22" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J22" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570466</v>
       </c>
       <c r="K22" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L22" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M22" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153213</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268062</v>
       </c>
       <c r="O22" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103592</v>
       </c>
       <c r="P22" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137002</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495637</v>
       </c>
       <c r="R22" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S22" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T22" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
@@ -32736,10 +32736,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,10 +32782,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -32794,7 +32794,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -32812,16 +32812,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
         <v>128.7867795998885</v>
@@ -32888,10 +32888,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
         <v>14.66668190417549</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,10 +33019,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -33031,7 +33031,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -33049,16 +33049,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,10 +33125,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
         <v>14.66668190417549</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
@@ -33210,10 +33210,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,10 +33256,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -33268,7 +33268,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -33286,16 +33286,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998885</v>
@@ -33362,10 +33362,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
         <v>14.66668190417549</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,13 +33414,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
@@ -33429,10 +33429,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917233</v>
@@ -33523,16 +33523,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,19 +33599,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,10 +33730,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -33742,7 +33742,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -33760,16 +33760,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,10 +33836,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
         <v>14.66668190417549</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33906,7 +33906,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -33921,10 +33921,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,10 +33967,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -33979,7 +33979,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -33997,16 +33997,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998885</v>
@@ -34073,10 +34073,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
         <v>14.66668190417549</v>
@@ -34085,7 +34085,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34143,7 +34143,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -34158,10 +34158,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,10 +34204,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -34216,7 +34216,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -34234,16 +34234,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998885</v>
@@ -34310,10 +34310,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417549</v>
@@ -34322,7 +34322,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>233.4896926139916</v>
       </c>
       <c r="N17" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O17" t="n">
         <v>224.0452553667433</v>
@@ -35962,10 +35962,10 @@
         <v>50.82274801921519</v>
       </c>
       <c r="J18" t="n">
-        <v>395.0550542837863</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K18" t="n">
-        <v>131.6915904391128</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L18" t="n">
         <v>154.4795984656607</v>
@@ -35977,13 +35977,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O18" t="n">
-        <v>169.2769372379901</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P18" t="n">
-        <v>135.8596658518925</v>
+        <v>153.1340173001367</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.818588703052</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R18" t="n">
         <v>162.5299238926254</v>
@@ -36044,25 +36044,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K19" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M19" t="n">
+        <v>93.49985245153209</v>
+      </c>
+      <c r="N19" t="n">
+        <v>91.27663494268063</v>
+      </c>
+      <c r="O19" t="n">
+        <v>349.7468808804922</v>
+      </c>
+      <c r="P19" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="N19" t="n">
-        <v>418.1856318563249</v>
-      </c>
-      <c r="O19" t="n">
-        <v>418.1856318563248</v>
-      </c>
-      <c r="P19" t="n">
-        <v>145.5775888403055</v>
-      </c>
       <c r="Q19" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R19" t="n">
         <v>5.615951549488944</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J20" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K20" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N20" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O20" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P20" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q20" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J21" t="n">
-        <v>395.0550542837863</v>
+        <v>84.49271384696654</v>
       </c>
       <c r="K21" t="n">
         <v>114.8868877226589</v>
@@ -36208,22 +36208,22 @@
         <v>154.4795984656607</v>
       </c>
       <c r="M21" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N21" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O21" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P21" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q21" t="n">
-        <v>107.6232914195061</v>
+        <v>418.185631856325</v>
       </c>
       <c r="R21" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570466</v>
       </c>
       <c r="K22" t="n">
         <v>346.8331089915197</v>
       </c>
       <c r="L22" t="n">
-        <v>418.1856318563249</v>
+        <v>354.117401153991</v>
       </c>
       <c r="M22" t="n">
-        <v>93.49985245153209</v>
+        <v>93.49985245153198</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O22" t="n">
-        <v>84.30874592103601</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P22" t="n">
-        <v>354.1174011539904</v>
+        <v>418.185631856325</v>
       </c>
       <c r="Q22" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R22" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488951</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36363,10 +36363,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36518,19 +36518,19 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572666</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>260.4234789221543</v>
+        <v>271.8556808637106</v>
       </c>
       <c r="P25" t="n">
         <v>452.8039900485103</v>
@@ -36603,7 +36603,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916791</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>159.6043244911507</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>258.5173486362903</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36840,7 +36840,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36849,7 +36849,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>266.5900650540094</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619344</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998884</v>
@@ -37065,19 +37065,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447062</v>
+        <v>131.6477269403671</v>
       </c>
       <c r="M34" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O34" t="n">
-        <v>296.1475206512698</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572666</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>547.5562458447062</v>
+        <v>219.1019543794482</v>
       </c>
       <c r="M37" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O37" t="n">
-        <v>296.1475206512698</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>452.8039900485103</v>
@@ -37545,7 +37545,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L38" t="n">
         <v>296.0766412766674</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572666</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M40" t="n">
-        <v>309.1157135712372</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37779,22 +37779,22 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572666</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>309.1157135712367</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38034,7 +38034,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562349</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -38119,7 +38119,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>212.8086187443682</v>
       </c>
       <c r="O46" t="n">
-        <v>277.1599674523491</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
